--- a/SetList/xlsx/trainee.xlsx
+++ b/SetList/xlsx/trainee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/prog/HPServer/SetList/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B290EA-36BD-5347-ABD4-B5F15A982D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3193D810-839B-F34E-8B78-A3350A23A389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="37340" windowHeight="22060" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38660" yWindow="680" windowWidth="37340" windowHeight="22060" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="実力診断テスト2022" sheetId="33" r:id="rId1"/>
@@ -19,42 +19,43 @@
     <sheet name="実力診断テスト2019" sheetId="3" r:id="rId4"/>
     <sheet name="実力診断テスト2018" sheetId="4" r:id="rId5"/>
     <sheet name="実力診断テスト2017" sheetId="5" r:id="rId6"/>
-    <sheet name="22 研修生発表会 6月 COLOR〜色彩〜" sheetId="36" r:id="rId7"/>
-    <sheet name="22 研修生発表会 3月 〜息吹〜" sheetId="34" r:id="rId8"/>
-    <sheet name="21 研修生発表会 12月 〜RING〜" sheetId="6" r:id="rId9"/>
-    <sheet name="21 研修生発表会 9月 〜STARS〜" sheetId="7" r:id="rId10"/>
-    <sheet name="21 研修生発表会 3月 〜Yell〜" sheetId="8" r:id="rId11"/>
-    <sheet name="20 研修生発表会 12月 〜光〜" sheetId="9" r:id="rId12"/>
-    <sheet name="20 研修生発表会 9月 〜コスモス〜" sheetId="10" r:id="rId13"/>
-    <sheet name="19 研修生発表会 12月 〜結〜" sheetId="11" r:id="rId14"/>
-    <sheet name="19 研修生発表会 9月 〜煌〜" sheetId="12" r:id="rId15"/>
-    <sheet name="19 研修生発表会 6月 〜緑〜" sheetId="13" r:id="rId16"/>
-    <sheet name="19 研修生発表会 3月 〜SUN〜" sheetId="14" r:id="rId17"/>
-    <sheet name="18 研修生発表会 12月 〜みかん〜" sheetId="15" r:id="rId18"/>
-    <sheet name="18 研修生発表会 9月 〜もみじ〜" sheetId="16" r:id="rId19"/>
-    <sheet name="18 研修生発表会 6月 〜にじ〜" sheetId="17" r:id="rId20"/>
-    <sheet name="18 研修生発表会 3月 〜さくら〜" sheetId="18" r:id="rId21"/>
-    <sheet name="17 研修生発表会 12月 〜Conti→New！〜" sheetId="19" r:id="rId22"/>
-    <sheet name="17 研修生発表会 9月 〜Go NEXT〜" sheetId="20" r:id="rId23"/>
-    <sheet name="17 研修生発表会 6月 〜June Tripper！〜" sheetId="21" r:id="rId24"/>
-    <sheet name="17 研修生発表会 3月 〜Marching！〜" sheetId="22" r:id="rId25"/>
-    <sheet name="16 研修生発表会 12月 〜EXCITING！〜" sheetId="23" r:id="rId26"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.8" sheetId="24" r:id="rId27"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.7" sheetId="25" r:id="rId28"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.6〜サマースペシャル！" sheetId="26" r:id="rId29"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.5" sheetId="27" r:id="rId30"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.4(夜)" sheetId="28" r:id="rId31"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.4(昼)" sheetId="29" r:id="rId32"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.3" sheetId="30" r:id="rId33"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.2" sheetId="31" r:id="rId34"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.1" sheetId="32" r:id="rId35"/>
+    <sheet name="22 研修生発表会 9月 TIME〜時空〜" sheetId="37" r:id="rId7"/>
+    <sheet name="22 研修生発表会 6月 COLOR〜色彩〜" sheetId="36" r:id="rId8"/>
+    <sheet name="22 研修生発表会 3月 〜息吹〜" sheetId="34" r:id="rId9"/>
+    <sheet name="21 研修生発表会 12月 〜RING〜" sheetId="6" r:id="rId10"/>
+    <sheet name="21 研修生発表会 9月 〜STARS〜" sheetId="7" r:id="rId11"/>
+    <sheet name="21 研修生発表会 3月 〜Yell〜" sheetId="8" r:id="rId12"/>
+    <sheet name="20 研修生発表会 12月 〜光〜" sheetId="9" r:id="rId13"/>
+    <sheet name="20 研修生発表会 9月 〜コスモス〜" sheetId="10" r:id="rId14"/>
+    <sheet name="19 研修生発表会 12月 〜結〜" sheetId="11" r:id="rId15"/>
+    <sheet name="19 研修生発表会 9月 〜煌〜" sheetId="12" r:id="rId16"/>
+    <sheet name="19 研修生発表会 6月 〜緑〜" sheetId="13" r:id="rId17"/>
+    <sheet name="19 研修生発表会 3月 〜SUN〜" sheetId="14" r:id="rId18"/>
+    <sheet name="18 研修生発表会 12月 〜みかん〜" sheetId="15" r:id="rId19"/>
+    <sheet name="18 研修生発表会 9月 〜もみじ〜" sheetId="16" r:id="rId20"/>
+    <sheet name="18 研修生発表会 6月 〜にじ〜" sheetId="17" r:id="rId21"/>
+    <sheet name="18 研修生発表会 3月 〜さくら〜" sheetId="18" r:id="rId22"/>
+    <sheet name="17 研修生発表会 12月 〜Conti→New！〜" sheetId="19" r:id="rId23"/>
+    <sheet name="17 研修生発表会 9月 〜Go NEXT〜" sheetId="20" r:id="rId24"/>
+    <sheet name="17 研修生発表会 6月 〜June Tripper！〜" sheetId="21" r:id="rId25"/>
+    <sheet name="17 研修生発表会 3月 〜Marching！〜" sheetId="22" r:id="rId26"/>
+    <sheet name="16 研修生発表会 12月 〜EXCITING！〜" sheetId="23" r:id="rId27"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.8" sheetId="24" r:id="rId28"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.7" sheetId="25" r:id="rId29"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.6〜サマースペシャル！" sheetId="26" r:id="rId30"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.5" sheetId="27" r:id="rId31"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.4(夜)" sheetId="28" r:id="rId32"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.4(昼)" sheetId="29" r:id="rId33"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.3" sheetId="30" r:id="rId34"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.2" sheetId="31" r:id="rId35"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.1" sheetId="32" r:id="rId36"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="694">
   <si>
     <t>項番</t>
   </si>
@@ -2588,6 +2589,208 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t xml:space="preserve">ノビヨ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヤッタルチャン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>絶対アイドル宣言</t>
+    <rPh sb="0" eb="2">
+      <t>ゼッタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お祭りデビューだぜ！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダイスキだけど付き合えない</t>
+    <rPh sb="7" eb="8">
+      <t>ツキアエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハロプロ研修生ユニット 22</t>
+    <rPh sb="0" eb="3">
+      <t>ハロプロケンシュウセイイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>書いては消しての"I Love You"</t>
+    <rPh sb="0" eb="1">
+      <t>カイテ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケセィ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハロプロ研修生ユニット 22</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素肌は熱帯夜</t>
+    <rPh sb="0" eb="2">
+      <t>スハダ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ネッタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hello！　生まれた意味がきっとある</t>
+    <rPh sb="7" eb="8">
+      <t>ウマレ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Upside down girl</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>研修生ユニット 22 川嶋美楓　後藤花　下井谷幸穂</t>
+    <rPh sb="0" eb="3">
+      <t>ケンシュウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>カワシマ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ゴトウ</t>
+    </rPh>
+    <rPh sb="20" eb="25">
+      <t>シモイタニユキホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いつもとおんなじ制服で</t>
+    <rPh sb="8" eb="10">
+      <t>セイフク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>川嶋美楓　後藤花　下井谷幸穂　上村麗菜</t>
+    <rPh sb="0" eb="4">
+      <t>カワシマ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ゴトウ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>シモイタニユキホ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>カミムラレ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>好きって言ってよ</t>
+    <rPh sb="0" eb="1">
+      <t>スキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">イッテヨ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>研修瀬ユニット 22 川嶋美楓</t>
+    <rPh sb="0" eb="1">
+      <t>ケンシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>カワシマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表面張力〜Surface Tension〜</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハピネス〜幸福歓迎！〜</t>
+    <rPh sb="5" eb="7">
+      <t>コウフク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>松原ユリヤ　橋田歩果　植村葉純　川嶋美楓　下井谷幸穂</t>
+    <rPh sb="0" eb="1">
+      <t>マツバラ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハシダヘ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウエムラハ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>カワシマ</t>
+    </rPh>
+    <rPh sb="21" eb="26">
+      <t>シモイタニユキホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お願い魅惑のターゲット</t>
+    <rPh sb="0" eb="1">
+      <t>オネガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミワクノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小野田華凜　村越彩菜　川嶋美楓　後藤花</t>
+    <rPh sb="0" eb="1">
+      <t>オノダカリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ムラコセィ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>カワシマ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ゴトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フレフレ・エブリデイ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一尺玉でぶっ放せ！</t>
+    <rPh sb="0" eb="3">
+      <t>イッセィア</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハナセ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4591,6 +4794,342 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -4898,7 +5437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -5234,7 +5773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -5556,7 +6095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -5906,7 +6445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -6228,7 +6767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6553,7 +7092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6878,7 +7417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7217,7 +7756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7543,359 +8082,6 @@
         <v>38</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="4.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="27" customWidth="1"/>
-    <col min="4" max="4" width="98.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" customHeight="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" customHeight="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" customHeight="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" customHeight="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" customHeight="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" customHeight="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" customHeight="1">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" customHeight="1">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" customHeight="1">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" customHeight="1">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" customHeight="1">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" customHeight="1">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" customHeight="1">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" customHeight="1">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" customHeight="1">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" customHeight="1">
-      <c r="A22" s="24">
-        <v>21</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" customHeight="1">
-      <c r="A23" s="24">
-        <v>22</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="25" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8316,6 +8502,359 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="27" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="27" customWidth="1"/>
+    <col min="4" max="4" width="98.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" customHeight="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" customHeight="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" customHeight="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" customHeight="1">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" customHeight="1">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" customHeight="1">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" customHeight="1">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" customHeight="1">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" customHeight="1">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" customHeight="1">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" customHeight="1">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" customHeight="1">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" customHeight="1">
+      <c r="A22" s="24">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" customHeight="1">
+      <c r="A23" s="24">
+        <v>22</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8682,7 +9221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9035,7 +9574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9388,7 +9927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9713,7 +10252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -10038,7 +10577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -10377,7 +10916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -10688,7 +11227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -10915,7 +11454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11116,303 +11655,6 @@
       </c>
       <c r="D13" s="25" t="s">
         <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="50.33203125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="58" style="37" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="37" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="37"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" customHeight="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" customHeight="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" customHeight="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" customHeight="1">
-      <c r="A10" s="24">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>554</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" customHeight="1">
-      <c r="A11" s="24">
-        <v>11</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" customHeight="1">
-      <c r="A12" s="24">
-        <v>12</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" customHeight="1">
-      <c r="A13" s="24">
-        <v>13</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" customHeight="1">
-      <c r="A14" s="24">
-        <v>14</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" customHeight="1">
-      <c r="A15" s="24">
-        <v>15</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" customHeight="1">
-      <c r="A16" s="24">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" customHeight="1">
-      <c r="A17" s="24">
-        <v>17</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" customHeight="1">
-      <c r="A18" s="24">
-        <v>18</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" customHeight="1">
-      <c r="A19" s="24">
-        <v>19</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -11830,6 +12072,303 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="58" style="37" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="37" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" customHeight="1">
+      <c r="A10" s="24">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" customHeight="1">
+      <c r="A11" s="24">
+        <v>11</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" customHeight="1">
+      <c r="A12" s="24">
+        <v>12</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" customHeight="1">
+      <c r="A13" s="24">
+        <v>13</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" customHeight="1">
+      <c r="A14" s="24">
+        <v>14</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" customHeight="1">
+      <c r="A15" s="24">
+        <v>15</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" customHeight="1">
+      <c r="A16" s="24">
+        <v>16</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" customHeight="1">
+      <c r="A17" s="24">
+        <v>17</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" customHeight="1">
+      <c r="A18" s="24">
+        <v>18</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" customHeight="1">
+      <c r="A19" s="24">
+        <v>19</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12056,7 +12595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12269,7 +12808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12482,7 +13021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12625,7 +13164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12782,7 +13321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -14803,10 +15342,360 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5C0C09-62EE-EE4F-BBAD-377379AEE77A}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="43" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>672</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>673</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>674</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>675</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>677</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>622</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>679</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>680</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>571</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>681</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>571</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>683</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>685</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>619</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>687</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>571</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>688</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>690</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>692</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>571</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>648</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6ECD39-F82B-D940-8FC1-9D110F0BC478}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -15180,7 +16069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490E58B6-C5BD-4041-A868-1AF477EC5206}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -15514,340 +16403,4 @@
     <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="83.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/SetList/xlsx/trainee.xlsx
+++ b/SetList/xlsx/trainee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/prog/HPServer/SetList/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3193D810-839B-F34E-8B78-A3350A23A389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF59171-A837-2E47-B11A-CBE11493E5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38660" yWindow="680" windowWidth="37340" windowHeight="22060" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,43 +19,44 @@
     <sheet name="実力診断テスト2019" sheetId="3" r:id="rId4"/>
     <sheet name="実力診断テスト2018" sheetId="4" r:id="rId5"/>
     <sheet name="実力診断テスト2017" sheetId="5" r:id="rId6"/>
-    <sheet name="22 研修生発表会 9月 TIME〜時空〜" sheetId="37" r:id="rId7"/>
-    <sheet name="22 研修生発表会 6月 COLOR〜色彩〜" sheetId="36" r:id="rId8"/>
-    <sheet name="22 研修生発表会 3月 〜息吹〜" sheetId="34" r:id="rId9"/>
-    <sheet name="21 研修生発表会 12月 〜RING〜" sheetId="6" r:id="rId10"/>
-    <sheet name="21 研修生発表会 9月 〜STARS〜" sheetId="7" r:id="rId11"/>
-    <sheet name="21 研修生発表会 3月 〜Yell〜" sheetId="8" r:id="rId12"/>
-    <sheet name="20 研修生発表会 12月 〜光〜" sheetId="9" r:id="rId13"/>
-    <sheet name="20 研修生発表会 9月 〜コスモス〜" sheetId="10" r:id="rId14"/>
-    <sheet name="19 研修生発表会 12月 〜結〜" sheetId="11" r:id="rId15"/>
-    <sheet name="19 研修生発表会 9月 〜煌〜" sheetId="12" r:id="rId16"/>
-    <sheet name="19 研修生発表会 6月 〜緑〜" sheetId="13" r:id="rId17"/>
-    <sheet name="19 研修生発表会 3月 〜SUN〜" sheetId="14" r:id="rId18"/>
-    <sheet name="18 研修生発表会 12月 〜みかん〜" sheetId="15" r:id="rId19"/>
-    <sheet name="18 研修生発表会 9月 〜もみじ〜" sheetId="16" r:id="rId20"/>
-    <sheet name="18 研修生発表会 6月 〜にじ〜" sheetId="17" r:id="rId21"/>
-    <sheet name="18 研修生発表会 3月 〜さくら〜" sheetId="18" r:id="rId22"/>
-    <sheet name="17 研修生発表会 12月 〜Conti→New！〜" sheetId="19" r:id="rId23"/>
-    <sheet name="17 研修生発表会 9月 〜Go NEXT〜" sheetId="20" r:id="rId24"/>
-    <sheet name="17 研修生発表会 6月 〜June Tripper！〜" sheetId="21" r:id="rId25"/>
-    <sheet name="17 研修生発表会 3月 〜Marching！〜" sheetId="22" r:id="rId26"/>
-    <sheet name="16 研修生発表会 12月 〜EXCITING！〜" sheetId="23" r:id="rId27"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.8" sheetId="24" r:id="rId28"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.7" sheetId="25" r:id="rId29"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.6〜サマースペシャル！" sheetId="26" r:id="rId30"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.5" sheetId="27" r:id="rId31"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.4(夜)" sheetId="28" r:id="rId32"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.4(昼)" sheetId="29" r:id="rId33"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.3" sheetId="30" r:id="rId34"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.2" sheetId="31" r:id="rId35"/>
-    <sheet name="ハロプロ研修生北海道 定期公演 Vol.1" sheetId="32" r:id="rId36"/>
+    <sheet name="22 研修生発表会 12月 Snowflake〜結晶〜" sheetId="38" r:id="rId7"/>
+    <sheet name="22 研修生発表会 9月 TIME〜時空〜" sheetId="37" r:id="rId8"/>
+    <sheet name="22 研修生発表会 6月 COLOR〜色彩〜" sheetId="36" r:id="rId9"/>
+    <sheet name="22 研修生発表会 3月 〜息吹〜" sheetId="34" r:id="rId10"/>
+    <sheet name="21 研修生発表会 12月 〜RING〜" sheetId="6" r:id="rId11"/>
+    <sheet name="21 研修生発表会 9月 〜STARS〜" sheetId="7" r:id="rId12"/>
+    <sheet name="21 研修生発表会 3月 〜Yell〜" sheetId="8" r:id="rId13"/>
+    <sheet name="20 研修生発表会 12月 〜光〜" sheetId="9" r:id="rId14"/>
+    <sheet name="20 研修生発表会 9月 〜コスモス〜" sheetId="10" r:id="rId15"/>
+    <sheet name="19 研修生発表会 12月 〜結〜" sheetId="11" r:id="rId16"/>
+    <sheet name="19 研修生発表会 9月 〜煌〜" sheetId="12" r:id="rId17"/>
+    <sheet name="19 研修生発表会 6月 〜緑〜" sheetId="13" r:id="rId18"/>
+    <sheet name="19 研修生発表会 3月 〜SUN〜" sheetId="14" r:id="rId19"/>
+    <sheet name="18 研修生発表会 12月 〜みかん〜" sheetId="15" r:id="rId20"/>
+    <sheet name="18 研修生発表会 9月 〜もみじ〜" sheetId="16" r:id="rId21"/>
+    <sheet name="18 研修生発表会 6月 〜にじ〜" sheetId="17" r:id="rId22"/>
+    <sheet name="18 研修生発表会 3月 〜さくら〜" sheetId="18" r:id="rId23"/>
+    <sheet name="17 研修生発表会 12月 〜Conti→New！〜" sheetId="19" r:id="rId24"/>
+    <sheet name="17 研修生発表会 9月 〜Go NEXT〜" sheetId="20" r:id="rId25"/>
+    <sheet name="17 研修生発表会 6月 〜June Tripper！〜" sheetId="21" r:id="rId26"/>
+    <sheet name="17 研修生発表会 3月 〜Marching！〜" sheetId="22" r:id="rId27"/>
+    <sheet name="16 研修生発表会 12月 〜EXCITING！〜" sheetId="23" r:id="rId28"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.8" sheetId="24" r:id="rId29"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.7" sheetId="25" r:id="rId30"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.6〜サマースペシャル！" sheetId="26" r:id="rId31"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.5" sheetId="27" r:id="rId32"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.4(夜)" sheetId="28" r:id="rId33"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.4(昼)" sheetId="29" r:id="rId34"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.3" sheetId="30" r:id="rId35"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.2" sheetId="31" r:id="rId36"/>
+    <sheet name="ハロプロ研修生北海道 定期公演 Vol.1" sheetId="32" r:id="rId37"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="713">
   <si>
     <t>項番</t>
   </si>
@@ -2792,6 +2793,172 @@
     <rPh sb="6" eb="7">
       <t>ハナセ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ice day Party</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>４３度</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ド </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Say！ Hello！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I Need You 〜夜空の観覧車〜</t>
+    <rPh sb="12" eb="14">
+      <t>ヨゾラ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カンラn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハロプロ研修生ユニット 22　ハロプロ研修生</t>
+    <rPh sb="0" eb="3">
+      <t>ハロプロケンシュウセイイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヨリドリ Me DREAM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>運命 CHACHACHACHA〜N</t>
+    <rPh sb="0" eb="2">
+      <t>ウンメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明日テンキになあれ</t>
+    <rPh sb="0" eb="2">
+      <t>アシタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初めてを経験中</t>
+    <rPh sb="0" eb="1">
+      <t>ハジメ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ケイケn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハロプロ研修生</t>
+    <rPh sb="6" eb="7">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウチらの地元は地球じゃん</t>
+    <rPh sb="4" eb="6">
+      <t>ジモト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>王子様と雪の夜</t>
+    <rPh sb="0" eb="3">
+      <t>オウジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ユキノ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小野田華凜　村越彩菜　吉田姫杷　川嶋美楓　or 松原ユリヤ　橋田歩果　植村葉純　後藤花</t>
+    <rPh sb="0" eb="1">
+      <t>オノダカリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ムラ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ヨシダ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>カワシマ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>マツバラ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>ハシダホ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>ウエムラ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ゴトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミラー・ミラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハロプロ研修生ユニット 22　川嶋美楓　下井谷幸穂</t>
+    <rPh sb="0" eb="3">
+      <t>ハロプロケンシュウセイイ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>カワシマ</t>
+    </rPh>
+    <rPh sb="20" eb="25">
+      <t>シモイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hello！ 生まれた意味がきっとある</t>
+    <rPh sb="7" eb="8">
+      <t>ウマレ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>丸い太陽</t>
+    <rPh sb="0" eb="1">
+      <t>マルイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>恋愛奉行</t>
+    <rPh sb="0" eb="4">
+      <t>レn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブラボー！</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2961,146 +3128,53 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4271,12 +4345,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="66.83203125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="43" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="43"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -4297,13 +4371,13 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="13" t="s">
         <v>570</v>
       </c>
     </row>
@@ -4311,13 +4385,13 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="13" t="s">
         <v>596</v>
       </c>
     </row>
@@ -4325,13 +4399,13 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="13" t="s">
         <v>573</v>
       </c>
     </row>
@@ -4339,13 +4413,13 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="13" t="s">
         <v>576</v>
       </c>
     </row>
@@ -4353,13 +4427,13 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="13" t="s">
         <v>578</v>
       </c>
     </row>
@@ -4367,13 +4441,13 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="13" t="s">
         <v>580</v>
       </c>
     </row>
@@ -4381,13 +4455,13 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="13" t="s">
         <v>581</v>
       </c>
     </row>
@@ -4395,13 +4469,13 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="13" t="s">
         <v>582</v>
       </c>
     </row>
@@ -4409,13 +4483,13 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="13" t="s">
         <v>583</v>
       </c>
     </row>
@@ -4423,13 +4497,13 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="13" t="s">
         <v>584</v>
       </c>
     </row>
@@ -4437,13 +4511,13 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="13" t="s">
         <v>587</v>
       </c>
     </row>
@@ -4451,13 +4525,13 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="13" t="s">
         <v>588</v>
       </c>
     </row>
@@ -4465,13 +4539,13 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="13" t="s">
         <v>591</v>
       </c>
     </row>
@@ -4479,13 +4553,13 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="13" t="s">
         <v>594</v>
       </c>
     </row>
@@ -4493,13 +4567,13 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="13" t="s">
         <v>578</v>
       </c>
     </row>
@@ -4507,13 +4581,13 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="13" t="s">
         <v>598</v>
       </c>
     </row>
@@ -4521,10 +4595,10 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="13" t="s">
         <v>593</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -4535,13 +4609,13 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="13" t="s">
         <v>601</v>
       </c>
     </row>
@@ -4549,13 +4623,13 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="13" t="s">
         <v>573</v>
       </c>
     </row>
@@ -4563,13 +4637,13 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="13" t="s">
         <v>604</v>
       </c>
     </row>
@@ -4577,13 +4651,13 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="14" t="s">
         <v>606</v>
       </c>
     </row>
@@ -4591,13 +4665,13 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="15" t="s">
         <v>608</v>
       </c>
     </row>
@@ -4605,13 +4679,13 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="15" t="s">
         <v>596</v>
       </c>
     </row>
@@ -4619,13 +4693,13 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="15" t="s">
         <v>609</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="15" t="s">
         <v>610</v>
       </c>
     </row>
@@ -4633,13 +4707,13 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="15" t="s">
         <v>611</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="15" t="s">
         <v>612</v>
       </c>
     </row>
@@ -4647,13 +4721,13 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="15" t="s">
         <v>613</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="15" t="s">
         <v>614</v>
       </c>
     </row>
@@ -4661,13 +4735,13 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="15" t="s">
         <v>615</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="15" t="s">
         <v>614</v>
       </c>
     </row>
@@ -4675,13 +4749,13 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="15" t="s">
         <v>616</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="15" t="s">
         <v>617</v>
       </c>
     </row>
@@ -4689,13 +4763,13 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="15" t="s">
         <v>618</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="15" t="s">
         <v>617</v>
       </c>
     </row>
@@ -4703,13 +4777,13 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="15" t="s">
         <v>619</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="15" t="s">
         <v>617</v>
       </c>
     </row>
@@ -4717,13 +4791,13 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="15" t="s">
         <v>620</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="15" t="s">
         <v>621</v>
       </c>
     </row>
@@ -4731,13 +4805,13 @@
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="15" t="s">
         <v>622</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="15" t="s">
         <v>623</v>
       </c>
     </row>
@@ -4745,13 +4819,13 @@
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="15" t="s">
         <v>624</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="15" t="s">
         <v>625</v>
       </c>
     </row>
@@ -4759,13 +4833,13 @@
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="15" t="s">
         <v>626</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="D35" s="15" t="s">
         <v>621</v>
       </c>
     </row>
@@ -4773,13 +4847,13 @@
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="15" t="s">
         <v>596</v>
       </c>
     </row>
@@ -4794,21 +4868,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490E58B6-C5BD-4041-A868-1AF477EC5206}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="83.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="15"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -4829,8 +4903,8 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>214</v>
+      <c r="B2" s="13" t="s">
+        <v>627</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -4843,8 +4917,8 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>215</v>
+      <c r="B3" s="13" t="s">
+        <v>628</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
@@ -4871,218 +4945,218 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>216</v>
+      <c r="B5" s="13" t="s">
+        <v>629</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>49</v>
+      <c r="D5" s="13" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>217</v>
+      <c r="B6" s="13" t="s">
+        <v>631</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>82</v>
+      <c r="D6" s="13" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
+      <c r="B7" s="13" t="s">
+        <v>632</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
+      <c r="D7" s="13" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>218</v>
+      <c r="B8" s="13" t="s">
+        <v>633</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
+      <c r="D8" s="13" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
+      <c r="B9" s="13" t="s">
+        <v>569</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>219</v>
+      <c r="B10" s="13" t="s">
+        <v>619</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>220</v>
+      <c r="D10" s="13" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>221</v>
+      <c r="B11" s="13" t="s">
+        <v>635</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>222</v>
+      <c r="D11" s="13" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>223</v>
+      <c r="B12" s="13" t="s">
+        <v>636</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>224</v>
+      <c r="D12" s="13" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>226</v>
+      <c r="B13" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>227</v>
+      <c r="B14" s="13" t="s">
+        <v>637</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>228</v>
+      <c r="D14" s="13" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>229</v>
+      <c r="B15" s="13" t="s">
+        <v>639</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
+      <c r="D15" s="13" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>230</v>
+      <c r="B16" s="13" t="s">
+        <v>641</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
+      <c r="D16" s="13" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>231</v>
+      <c r="B17" s="13" t="s">
+        <v>643</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>82</v>
+      <c r="D17" s="13" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>232</v>
+      <c r="B18" s="13" t="s">
+        <v>645</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>82</v>
+      <c r="D18" s="13" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>233</v>
+      <c r="B19" s="13" t="s">
+        <v>647</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>82</v>
+      <c r="D19" s="13" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>234</v>
+      <c r="B20" s="13" t="s">
+        <v>649</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
@@ -5109,8 +5183,8 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>235</v>
+      <c r="B22" s="13" t="s">
+        <v>650</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>38</v>
@@ -5130,21 +5204,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="83.33203125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="16"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -5166,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -5180,7 +5254,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
@@ -5208,13 +5282,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>239</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
@@ -5222,13 +5296,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>241</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
@@ -5236,13 +5310,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>243</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
@@ -5250,13 +5324,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>245</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
@@ -5278,13 +5352,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
@@ -5292,13 +5366,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
@@ -5306,13 +5380,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
@@ -5320,13 +5394,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>225</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
@@ -5334,13 +5408,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
@@ -5348,13 +5422,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>249</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
@@ -5362,13 +5436,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
@@ -5376,13 +5450,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>239</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
@@ -5390,13 +5464,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>239</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
@@ -5404,13 +5478,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
@@ -5418,12 +5492,40 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5438,8 +5540,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
@@ -5447,12 +5549,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="83.33203125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="17"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -5474,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -5488,7 +5590,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
@@ -5516,13 +5618,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
@@ -5530,13 +5632,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
@@ -5544,13 +5646,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
@@ -5558,13 +5660,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>244</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
@@ -5572,13 +5674,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>258</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
@@ -5586,13 +5688,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
@@ -5600,13 +5702,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
@@ -5614,13 +5716,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
@@ -5628,13 +5730,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
@@ -5642,13 +5744,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
@@ -5656,13 +5758,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
@@ -5670,13 +5772,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
@@ -5684,13 +5786,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
@@ -5698,13 +5800,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
@@ -5712,13 +5814,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
@@ -5726,40 +5828,12 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5774,8 +5848,8 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
@@ -5783,12 +5857,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="91.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="18"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -5810,13 +5884,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>274</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
@@ -5824,13 +5898,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>276</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
@@ -5852,13 +5926,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>278</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
@@ -5866,7 +5940,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
@@ -5880,7 +5954,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>38</v>
@@ -5894,13 +5968,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>257</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
@@ -5908,13 +5982,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
@@ -5922,13 +5996,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
@@ -5936,13 +6010,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
@@ -5950,13 +6024,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>285</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
@@ -5964,13 +6038,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>286</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
@@ -5978,13 +6052,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>266</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
@@ -5992,13 +6066,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
@@ -6006,13 +6080,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>290</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
@@ -6020,13 +6094,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>293</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
@@ -6034,13 +6108,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>294</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>295</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
@@ -6048,13 +6122,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
@@ -6062,7 +6136,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
@@ -6076,12 +6150,26 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6096,21 +6184,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="19"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="91.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -6132,13 +6220,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
@@ -6146,13 +6234,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>275</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
@@ -6174,13 +6262,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
@@ -6188,13 +6276,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
@@ -6202,13 +6290,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
@@ -6216,13 +6304,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
@@ -6244,13 +6332,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
@@ -6258,13 +6346,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
@@ -6272,13 +6360,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
@@ -6286,13 +6374,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
@@ -6314,13 +6402,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
@@ -6328,13 +6416,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
@@ -6342,13 +6430,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
@@ -6356,13 +6444,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>294</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
@@ -6384,13 +6472,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>313</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
@@ -6398,41 +6486,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -6446,21 +6506,21 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="110.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="20"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -6482,13 +6542,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
@@ -6496,13 +6556,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>320</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
@@ -6510,13 +6570,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
@@ -6524,13 +6584,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
@@ -6538,13 +6598,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
@@ -6552,13 +6612,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
@@ -6566,13 +6626,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
@@ -6580,13 +6640,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>327</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>328</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
@@ -6594,13 +6654,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>172</v>
+        <v>303</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
@@ -6608,13 +6668,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>305</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
@@ -6622,13 +6682,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
@@ -6636,13 +6696,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>332</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
@@ -6650,13 +6710,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>333</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
@@ -6664,13 +6724,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
@@ -6678,13 +6738,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
@@ -6692,13 +6752,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
@@ -6706,13 +6766,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
@@ -6720,13 +6780,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>338</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
@@ -6734,13 +6794,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
@@ -6748,13 +6808,41 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -6768,6 +6856,328 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="110.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6780,12 +7190,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="21" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="82.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="21"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="82.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -7092,7 +7502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7105,12 +7515,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="22" customWidth="1"/>
-    <col min="4" max="4" width="80.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="22"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -7417,7 +7827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7430,12 +7840,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="23" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="23" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="23" customWidth="1"/>
-    <col min="4" max="4" width="79.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="23"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="79.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -7733,355 +8143,16 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" customHeight="1">
-      <c r="A22" s="24">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="4.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="26" customWidth="1"/>
-    <col min="4" max="4" width="72.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="26"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" customHeight="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" customHeight="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" customHeight="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" customHeight="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" customHeight="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" customHeight="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" customHeight="1">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" customHeight="1">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" customHeight="1">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" customHeight="1">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" customHeight="1">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" customHeight="1">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" customHeight="1">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" customHeight="1">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" customHeight="1">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" customHeight="1">
-      <c r="A22" s="24">
-        <v>21</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="C22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8502,6 +8573,345 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="72.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" customHeight="1">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" customHeight="1">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" customHeight="1">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" customHeight="1">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" customHeight="1">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" customHeight="1">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" customHeight="1">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" customHeight="1">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" customHeight="1">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" customHeight="1">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" customHeight="1">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" customHeight="1">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" customHeight="1">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8514,12 +8924,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="27" customWidth="1"/>
-    <col min="4" max="4" width="98.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="27"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="98.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -8817,30 +9227,30 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" customHeight="1">
-      <c r="A22" s="24">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="C22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" customHeight="1">
-      <c r="A23" s="24">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="25" t="s">
+      <c r="C23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8854,7 +9264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8867,12 +9277,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="28" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="28" customWidth="1"/>
-    <col min="4" max="4" width="113.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="28"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -9170,44 +9580,44 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" customHeight="1">
-      <c r="A22" s="24">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="B22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" customHeight="1">
-      <c r="A23" s="24">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="25" t="s">
+      <c r="C23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" customHeight="1">
-      <c r="A24" s="24">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="25" t="s">
+      <c r="C24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9221,7 +9631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9234,12 +9644,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="29" customWidth="1"/>
-    <col min="4" max="4" width="96.83203125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="29"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="96.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -9537,30 +9947,30 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" customHeight="1">
-      <c r="A22" s="24">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="C22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" customHeight="1">
-      <c r="A23" s="24">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="25" t="s">
+      <c r="C23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9574,7 +9984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9587,12 +9997,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="32" style="30" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="30" customWidth="1"/>
-    <col min="4" max="4" width="103" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="30"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="103" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -9890,30 +10300,30 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" customHeight="1">
-      <c r="A22" s="24">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="B22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" customHeight="1">
-      <c r="A23" s="24">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="25" t="s">
+      <c r="C23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9927,7 +10337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9940,12 +10350,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="31" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="31" customWidth="1"/>
-    <col min="4" max="4" width="87.6640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="31"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -10252,7 +10662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -10265,12 +10675,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="32" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="32" customWidth="1"/>
-    <col min="4" max="4" width="61.83203125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="32"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -10577,7 +10987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -10590,12 +11000,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="33" customWidth="1"/>
-    <col min="4" max="4" width="73.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="33" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="33"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -10893,16 +11303,16 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" customHeight="1">
-      <c r="A22" s="24">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="C22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10916,7 +11326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -10929,12 +11339,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="34" customWidth="1"/>
-    <col min="2" max="2" width="40" style="34" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="34" customWidth="1"/>
-    <col min="4" max="4" width="63.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="34" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="34"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -11227,7 +11637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11240,12 +11650,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="35"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -11375,285 +11785,72 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" customHeight="1">
-      <c r="A10" s="24">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" customHeight="1">
-      <c r="A11" s="24">
+      <c r="A11" s="11">
         <v>11</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" customHeight="1">
-      <c r="A12" s="24">
+      <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="25" t="s">
+      <c r="C12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" customHeight="1">
-      <c r="A13" s="24">
+      <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" customHeight="1">
-      <c r="A14" s="24">
+      <c r="A14" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="36" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" customHeight="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" customHeight="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" customHeight="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" customHeight="1">
-      <c r="A10" s="24">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" customHeight="1">
-      <c r="A11" s="24">
-        <v>11</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" customHeight="1">
-      <c r="A12" s="24">
-        <v>12</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" customHeight="1">
-      <c r="A13" s="24">
-        <v>13</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="B14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -11675,12 +11872,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="7"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -12072,6 +12269,219 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" customHeight="1">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" customHeight="1">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" customHeight="1">
+      <c r="A11" s="11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" customHeight="1">
+      <c r="A12" s="11">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" customHeight="1">
+      <c r="A13" s="11">
+        <v>13</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12084,12 +12494,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="50.33203125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="58" style="37" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="37" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="37"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -12219,142 +12629,142 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" customHeight="1">
-      <c r="A10" s="24">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" customHeight="1">
-      <c r="A11" s="24">
+      <c r="A11" s="11">
         <v>11</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="25" t="s">
+      <c r="B11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" customHeight="1">
-      <c r="A12" s="24">
+      <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="12" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" customHeight="1">
-      <c r="A13" s="24">
+      <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="B13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" customHeight="1">
-      <c r="A14" s="24">
+      <c r="A14" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" customHeight="1">
-      <c r="A15" s="24">
+      <c r="A15" s="11">
         <v>15</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" customHeight="1">
-      <c r="A16" s="24">
+      <c r="A16" s="11">
         <v>16</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" customHeight="1">
-      <c r="A17" s="24">
+      <c r="A17" s="11">
         <v>17</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="25" t="s">
+      <c r="C17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" customHeight="1">
-      <c r="A18" s="24">
+      <c r="A18" s="11">
         <v>18</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="25" t="s">
+      <c r="B18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" customHeight="1">
-      <c r="A19" s="24">
+      <c r="A19" s="11">
         <v>19</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>558</v>
       </c>
     </row>
@@ -12368,7 +12778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12381,12 +12791,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="50.33203125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="26" style="38" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="38" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="38"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -12516,72 +12926,72 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" customHeight="1">
-      <c r="A10" s="24">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="12" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" customHeight="1">
-      <c r="A11" s="24">
+      <c r="A11" s="11">
         <v>11</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="12" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" customHeight="1">
-      <c r="A12" s="24">
+      <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="25" t="s">
+      <c r="B12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" customHeight="1">
-      <c r="A13" s="24">
+      <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" customHeight="1">
-      <c r="A14" s="24">
+      <c r="A14" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>114</v>
       </c>
     </row>
@@ -12595,7 +13005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12608,12 +13018,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="20" style="39" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="56.5" style="39" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="39" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="39"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -12743,58 +13153,58 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" customHeight="1">
-      <c r="A10" s="24">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="12" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" customHeight="1">
-      <c r="A11" s="24">
+      <c r="A11" s="11">
         <v>11</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" customHeight="1">
-      <c r="A12" s="24">
+      <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="25" t="s">
+      <c r="C12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" customHeight="1">
-      <c r="A13" s="24">
+      <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -12808,7 +13218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12821,12 +13231,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="40" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="40"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -12956,58 +13366,58 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" customHeight="1">
-      <c r="A10" s="24">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="12" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" customHeight="1">
-      <c r="A11" s="24">
+      <c r="A11" s="11">
         <v>11</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" customHeight="1">
-      <c r="A12" s="24">
+      <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="25" t="s">
+      <c r="C12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" customHeight="1">
-      <c r="A13" s="24">
+      <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -13021,7 +13431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -13034,12 +13444,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="41" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="41"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -13164,7 +13574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -13177,12 +13587,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="42" customWidth="1"/>
-    <col min="2" max="2" width="32" style="42" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="42" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="42" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="42"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -13321,7 +13731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -13334,12 +13744,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="43" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="43" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="43" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="43"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" customHeight="1">
@@ -13486,12 +13896,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="8" customWidth="1"/>
-    <col min="5" max="6" width="12.6640625" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="8"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
@@ -13507,7 +13917,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="3">
@@ -13522,7 +13932,7 @@
       <c r="D2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="3">
@@ -13537,7 +13947,7 @@
       <c r="D3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="3">
@@ -13552,7 +13962,7 @@
       <c r="D4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="3">
@@ -13567,7 +13977,7 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="3">
@@ -13582,7 +13992,7 @@
       <c r="D6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="3">
@@ -13597,7 +14007,7 @@
       <c r="D7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="3">
@@ -13612,7 +14022,7 @@
       <c r="D8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="3">
@@ -13627,7 +14037,7 @@
       <c r="D9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="3">
@@ -13642,7 +14052,7 @@
       <c r="D10" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="3">
@@ -13657,7 +14067,7 @@
       <c r="D11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="3">
@@ -13672,7 +14082,7 @@
       <c r="D12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="3">
@@ -13687,7 +14097,7 @@
       <c r="D13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="3">
@@ -13702,7 +14112,7 @@
       <c r="D14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="3">
@@ -13717,7 +14127,7 @@
       <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="3">
@@ -13732,7 +14142,7 @@
       <c r="D16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="3">
@@ -13747,7 +14157,7 @@
       <c r="D17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="3">
@@ -13762,7 +14172,7 @@
       <c r="D18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="3">
@@ -13777,7 +14187,7 @@
       <c r="D19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="3">
@@ -13792,7 +14202,7 @@
       <c r="D20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="3">
@@ -13807,7 +14217,7 @@
       <c r="D21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="13.5" customHeight="1">
       <c r="A22" s="5">
@@ -13822,7 +14232,7 @@
       <c r="D22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1">
       <c r="A23" s="5">
@@ -13837,7 +14247,7 @@
       <c r="D23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" ht="13.5" customHeight="1">
       <c r="A24" s="5">
@@ -13852,7 +14262,7 @@
       <c r="D24" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="13.5" customHeight="1">
       <c r="A25" s="5">
@@ -13867,7 +14277,7 @@
       <c r="D25" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="13.5" customHeight="1">
       <c r="A26" s="5">
@@ -13882,7 +14292,7 @@
       <c r="D26" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="13.5" customHeight="1">
       <c r="A27" s="5">
@@ -13897,7 +14307,7 @@
       <c r="D27" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="13.5" customHeight="1">
       <c r="A28" s="5">
@@ -13912,7 +14322,7 @@
       <c r="D28" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="11"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" ht="13.5" customHeight="1">
       <c r="A29" s="5">
@@ -13927,7 +14337,7 @@
       <c r="D29" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" ht="13.5" customHeight="1">
       <c r="A30" s="5">
@@ -13942,7 +14352,7 @@
       <c r="D30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="11"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" ht="13.5" customHeight="1">
       <c r="A31" s="5">
@@ -13957,7 +14367,7 @@
       <c r="D31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -13977,12 +14387,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="13" customWidth="1"/>
-    <col min="5" max="6" width="12.6640625" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="13"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
@@ -13998,7 +14408,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="3">
@@ -14013,7 +14423,7 @@
       <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="3">
@@ -14028,7 +14438,7 @@
       <c r="D3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="3">
@@ -14043,7 +14453,7 @@
       <c r="D4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="3">
@@ -14058,7 +14468,7 @@
       <c r="D5" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="3">
@@ -14073,7 +14483,7 @@
       <c r="D6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="3">
@@ -14088,7 +14498,7 @@
       <c r="D7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="3">
@@ -14103,7 +14513,7 @@
       <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="3">
@@ -14118,7 +14528,7 @@
       <c r="D9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="3">
@@ -14133,7 +14543,7 @@
       <c r="D10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="3">
@@ -14148,7 +14558,7 @@
       <c r="D11" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="3">
@@ -14163,7 +14573,7 @@
       <c r="D12" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="3">
@@ -14178,7 +14588,7 @@
       <c r="D13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="3">
@@ -14193,7 +14603,7 @@
       <c r="D14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="3">
@@ -14208,7 +14618,7 @@
       <c r="D15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="3">
@@ -14223,7 +14633,7 @@
       <c r="D16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="3">
@@ -14238,7 +14648,7 @@
       <c r="D17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="3">
@@ -14253,7 +14663,7 @@
       <c r="D18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="3">
@@ -14268,7 +14678,7 @@
       <c r="D19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="3">
@@ -14283,7 +14693,7 @@
       <c r="D20" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="3">
@@ -14298,7 +14708,7 @@
       <c r="D21" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="13.5" customHeight="1">
       <c r="A22" s="5">
@@ -14313,7 +14723,7 @@
       <c r="D22" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1">
       <c r="A23" s="5">
@@ -14328,7 +14738,7 @@
       <c r="D23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" ht="13.5" customHeight="1">
       <c r="A24" s="5">
@@ -14343,7 +14753,7 @@
       <c r="D24" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="13.5" customHeight="1">
       <c r="A25" s="5">
@@ -14358,7 +14768,7 @@
       <c r="D25" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="13.5" customHeight="1">
       <c r="A26" s="5">
@@ -14373,7 +14783,7 @@
       <c r="D26" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="13.5" customHeight="1">
       <c r="A27" s="5">
@@ -14388,7 +14798,7 @@
       <c r="D27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="13.5" customHeight="1">
       <c r="A28" s="5">
@@ -14403,7 +14813,7 @@
       <c r="D28" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="11"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" ht="13.5" customHeight="1">
       <c r="A29" s="5">
@@ -14418,7 +14828,7 @@
       <c r="D29" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" ht="13.5" customHeight="1">
       <c r="A30" s="5">
@@ -14433,7 +14843,7 @@
       <c r="D30" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="11"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" ht="13.5" customHeight="1">
       <c r="A31" s="5">
@@ -14448,7 +14858,7 @@
       <c r="D31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" ht="13.5" customHeight="1">
       <c r="A32" s="5">
@@ -14463,7 +14873,7 @@
       <c r="D32" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="13.5" customHeight="1">
       <c r="A33" s="5">
@@ -14478,7 +14888,7 @@
       <c r="D33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" ht="13.5" customHeight="1">
       <c r="A34" s="5">
@@ -14493,7 +14903,7 @@
       <c r="D34" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1">
       <c r="A35" s="5">
@@ -14508,7 +14918,7 @@
       <c r="D35" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E35" s="11"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1">
       <c r="A36" s="5">
@@ -14523,7 +14933,7 @@
       <c r="D36" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E36" s="11"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1">
       <c r="A37" s="5">
@@ -14538,7 +14948,7 @@
       <c r="D37" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E37" s="11"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1">
       <c r="A38" s="5">
@@ -14553,7 +14963,7 @@
       <c r="D38" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="11"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1">
       <c r="A39" s="5">
@@ -14568,7 +14978,7 @@
       <c r="D39" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="13.5" customHeight="1">
       <c r="A40" s="5">
@@ -14583,7 +14993,7 @@
       <c r="D40" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="11"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" ht="13.5" customHeight="1">
       <c r="A41" s="5">
@@ -14598,7 +15008,7 @@
       <c r="D41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="11"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="13.5" customHeight="1">
       <c r="A42" s="5">
@@ -14613,7 +15023,7 @@
       <c r="D42" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1">
       <c r="A43" s="5">
@@ -14628,7 +15038,7 @@
       <c r="D43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="11"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1">
       <c r="A44" s="5">
@@ -14643,7 +15053,7 @@
       <c r="D44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="12"/>
+      <c r="E44" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -14663,12 +15073,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="14" customWidth="1"/>
-    <col min="5" max="6" width="12.6640625" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="14"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
@@ -14684,7 +15094,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="3">
@@ -14699,7 +15109,7 @@
       <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="3">
@@ -14714,7 +15124,7 @@
       <c r="D3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="3">
@@ -14729,7 +15139,7 @@
       <c r="D4" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="3">
@@ -14744,7 +15154,7 @@
       <c r="D5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="3">
@@ -14759,7 +15169,7 @@
       <c r="D6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="3">
@@ -14774,7 +15184,7 @@
       <c r="D7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="3">
@@ -14789,7 +15199,7 @@
       <c r="D8" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="3">
@@ -14804,7 +15214,7 @@
       <c r="D9" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="3">
@@ -14819,7 +15229,7 @@
       <c r="D10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="3">
@@ -14834,7 +15244,7 @@
       <c r="D11" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="3">
@@ -14849,7 +15259,7 @@
       <c r="D12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="3">
@@ -14864,7 +15274,7 @@
       <c r="D13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="3">
@@ -14879,7 +15289,7 @@
       <c r="D14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="3">
@@ -14894,7 +15304,7 @@
       <c r="D15" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="3">
@@ -14909,7 +15319,7 @@
       <c r="D16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="3">
@@ -14924,7 +15334,7 @@
       <c r="D17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="3">
@@ -14939,7 +15349,7 @@
       <c r="D18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="3">
@@ -14954,7 +15364,7 @@
       <c r="D19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="3">
@@ -14969,7 +15379,7 @@
       <c r="D20" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="3">
@@ -14984,7 +15394,7 @@
       <c r="D21" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="13.5" customHeight="1">
       <c r="A22" s="5">
@@ -14999,7 +15409,7 @@
       <c r="D22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1">
       <c r="A23" s="5">
@@ -15014,7 +15424,7 @@
       <c r="D23" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" ht="13.5" customHeight="1">
       <c r="A24" s="5">
@@ -15029,7 +15439,7 @@
       <c r="D24" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="13.5" customHeight="1">
       <c r="A25" s="5">
@@ -15044,7 +15454,7 @@
       <c r="D25" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="13.5" customHeight="1">
       <c r="A26" s="5">
@@ -15059,7 +15469,7 @@
       <c r="D26" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="13.5" customHeight="1">
       <c r="A27" s="5">
@@ -15074,7 +15484,7 @@
       <c r="D27" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="13.5" customHeight="1">
       <c r="A28" s="5">
@@ -15089,7 +15499,7 @@
       <c r="D28" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="11"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" ht="13.5" customHeight="1">
       <c r="A29" s="5">
@@ -15104,7 +15514,7 @@
       <c r="D29" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" ht="13.5" customHeight="1">
       <c r="A30" s="5">
@@ -15119,7 +15529,7 @@
       <c r="D30" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="11"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" ht="13.5" customHeight="1">
       <c r="A31" s="5">
@@ -15134,7 +15544,7 @@
       <c r="D31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" ht="13.5" customHeight="1">
       <c r="A32" s="5">
@@ -15149,7 +15559,7 @@
       <c r="D32" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="13.5" customHeight="1">
       <c r="A33" s="5">
@@ -15164,7 +15574,7 @@
       <c r="D33" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" ht="13.5" customHeight="1">
       <c r="A34" s="5">
@@ -15179,7 +15589,7 @@
       <c r="D34" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1">
       <c r="A35" s="5">
@@ -15194,7 +15604,7 @@
       <c r="D35" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E35" s="11"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1">
       <c r="A36" s="5">
@@ -15209,7 +15619,7 @@
       <c r="D36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="11"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1">
       <c r="A37" s="5">
@@ -15224,7 +15634,7 @@
       <c r="D37" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="11"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1">
       <c r="A38" s="5">
@@ -15239,7 +15649,7 @@
       <c r="D38" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E38" s="11"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1">
       <c r="A39" s="5">
@@ -15254,7 +15664,7 @@
       <c r="D39" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="13.5" customHeight="1">
       <c r="A40" s="5">
@@ -15269,7 +15679,7 @@
       <c r="D40" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="11"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" ht="13.5" customHeight="1">
       <c r="A41" s="5">
@@ -15284,7 +15694,7 @@
       <c r="D41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="11"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="13.5" customHeight="1">
       <c r="A42" s="5">
@@ -15299,7 +15709,7 @@
       <c r="D42" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1">
       <c r="A43" s="5">
@@ -15314,7 +15724,7 @@
       <c r="D43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="11"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1">
       <c r="A44" s="5">
@@ -15329,7 +15739,7 @@
       <c r="D44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="12"/>
+      <c r="E44" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -15342,21 +15752,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5C0C09-62EE-EE4F-BBAD-377379AEE77A}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6153E81D-BEDB-2E4A-A3CA-36332AE54260}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="83.33203125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="43" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="43"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -15377,13 +15787,13 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>672</v>
+      <c r="B2" s="13" t="s">
+        <v>694</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="13" t="s">
         <v>648</v>
       </c>
     </row>
@@ -15391,8 +15801,8 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>673</v>
+      <c r="B3" s="13" t="s">
+        <v>695</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
@@ -15419,83 +15829,83 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>674</v>
+      <c r="B5" s="13" t="s">
+        <v>675</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>617</v>
+      <c r="D5" s="13" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>596</v>
+      <c r="B6" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>675</v>
+      <c r="B7" s="13" t="s">
+        <v>697</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>676</v>
+      <c r="D7" s="13" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>677</v>
+      <c r="B8" s="13" t="s">
+        <v>699</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>678</v>
+      <c r="D8" s="13" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>622</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>678</v>
+      <c r="B9" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="44" t="s">
-        <v>679</v>
+      <c r="B10" s="13" t="s">
+        <v>700</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="13" t="s">
         <v>617</v>
       </c>
     </row>
@@ -15503,181 +15913,153 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>680</v>
-      </c>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D11" s="44" t="s">
-        <v>617</v>
+      <c r="D11" s="13" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>596</v>
+      <c r="B12" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>681</v>
-      </c>
-      <c r="C13" s="44" t="s">
+      <c r="B13" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D13" s="44" t="s">
-        <v>682</v>
+      <c r="D13" s="13" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>683</v>
+      <c r="B14" s="13" t="s">
+        <v>705</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>684</v>
+      <c r="D14" s="13" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>685</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>686</v>
+      <c r="B15" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>619</v>
+      <c r="B16" s="13" t="s">
+        <v>707</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="44" t="s">
-        <v>617</v>
+      <c r="D16" s="13" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>596</v>
+      <c r="B17" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>687</v>
-      </c>
-      <c r="C18" s="44" t="s">
+      <c r="B18" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D18" s="44" t="s">
-        <v>682</v>
+      <c r="D18" s="13" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>688</v>
+      <c r="B19" s="13" t="s">
+        <v>711</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="44" t="s">
-        <v>689</v>
+      <c r="D19" s="13" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>690</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>691</v>
+      <c r="B20" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="44" t="s">
-        <v>692</v>
-      </c>
-      <c r="C21" s="44" t="s">
+      <c r="B21" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D21" s="44" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>693</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="44" t="s">
+      <c r="D21" s="13" t="s">
         <v>648</v>
       </c>
     </row>
@@ -15692,21 +16074,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6ECD39-F82B-D940-8FC1-9D110F0BC478}">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5C0C09-62EE-EE4F-BBAD-377379AEE77A}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="83.33203125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="43" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="43"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -15727,22 +16109,22 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>651</v>
+      <c r="B2" s="13" t="s">
+        <v>672</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>621</v>
+      <c r="D2" s="13" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>652</v>
+      <c r="B3" s="13" t="s">
+        <v>673</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
@@ -15769,83 +16151,83 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>653</v>
+      <c r="B5" s="13" t="s">
+        <v>674</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>634</v>
+      <c r="D5" s="13" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>654</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>634</v>
+      <c r="B6" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>655</v>
+      <c r="B7" s="13" t="s">
+        <v>675</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>656</v>
+      <c r="D7" s="13" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>657</v>
+      <c r="B8" s="13" t="s">
+        <v>677</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>658</v>
+      <c r="D8" s="13" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>618</v>
+      <c r="B9" s="13" t="s">
+        <v>622</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="44" t="s">
-        <v>617</v>
+      <c r="D9" s="13" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="44" t="s">
-        <v>619</v>
+      <c r="B10" s="13" t="s">
+        <v>679</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="13" t="s">
         <v>617</v>
       </c>
     </row>
@@ -15853,209 +16235,181 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>596</v>
+      <c r="B11" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>599</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>659</v>
+      <c r="B12" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>607</v>
-      </c>
-      <c r="C13" s="44" t="s">
+      <c r="B13" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D13" s="44" t="s">
-        <v>658</v>
+      <c r="D13" s="13" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>660</v>
+      <c r="B14" s="13" t="s">
+        <v>683</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>576</v>
+      <c r="D14" s="13" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>602</v>
+      <c r="B15" s="13" t="s">
+        <v>685</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="44" t="s">
-        <v>661</v>
+      <c r="D15" s="13" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>605</v>
+      <c r="B16" s="13" t="s">
+        <v>619</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="44" t="s">
-        <v>606</v>
+      <c r="D16" s="13" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="44" t="s">
-        <v>616</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>617</v>
+      <c r="B17" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>596</v>
+      <c r="B18" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>662</v>
+      <c r="B19" s="13" t="s">
+        <v>688</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="44" t="s">
-        <v>663</v>
+      <c r="D19" s="13" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>664</v>
+      <c r="B20" s="13" t="s">
+        <v>690</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="44" t="s">
-        <v>665</v>
+      <c r="D20" s="13" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="44" t="s">
-        <v>666</v>
-      </c>
-      <c r="C21" s="44" t="s">
+      <c r="B21" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D21" s="44" t="s">
-        <v>668</v>
+      <c r="D21" s="13" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="44" t="s">
-        <v>667</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>669</v>
+      <c r="B22" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="44" t="s">
-        <v>670</v>
+      <c r="B23" s="13" t="s">
+        <v>693</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="44" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>671</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="44" t="s">
+      <c r="D23" s="13" t="s">
         <v>648</v>
       </c>
     </row>
@@ -16070,21 +16424,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490E58B6-C5BD-4041-A868-1AF477EC5206}">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6ECD39-F82B-D940-8FC1-9D110F0BC478}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="83.33203125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="43" customWidth="1"/>
-    <col min="6" max="16384" width="12.6640625" style="43"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -16105,22 +16459,22 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>627</v>
+      <c r="B2" s="13" t="s">
+        <v>651</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
+      <c r="D2" s="13" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>628</v>
+      <c r="B3" s="13" t="s">
+        <v>652</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
@@ -16147,83 +16501,83 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>629</v>
+      <c r="B5" s="13" t="s">
+        <v>653</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>630</v>
+      <c r="D5" s="13" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>631</v>
+      <c r="B6" s="13" t="s">
+        <v>654</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="44" t="s">
-        <v>648</v>
+      <c r="D6" s="13" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>632</v>
+      <c r="B7" s="13" t="s">
+        <v>655</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="44" t="s">
-        <v>648</v>
+      <c r="D7" s="13" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>633</v>
+      <c r="B8" s="13" t="s">
+        <v>657</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>648</v>
+      <c r="D8" s="13" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>569</v>
+      <c r="B9" s="13" t="s">
+        <v>618</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="44" t="s">
-        <v>648</v>
+      <c r="D9" s="13" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="13" t="s">
         <v>619</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="13" t="s">
         <v>617</v>
       </c>
     </row>
@@ -16231,168 +16585,210 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>635</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>617</v>
+      <c r="B11" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>636</v>
+      <c r="B12" s="13" t="s">
+        <v>599</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="44" t="s">
-        <v>617</v>
+      <c r="D12" s="13" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>596</v>
+      <c r="B13" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>637</v>
+      <c r="B14" s="13" t="s">
+        <v>660</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>638</v>
+      <c r="D14" s="13" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>639</v>
+      <c r="B15" s="13" t="s">
+        <v>602</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="44" t="s">
-        <v>640</v>
+      <c r="D15" s="13" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>641</v>
+      <c r="B16" s="13" t="s">
+        <v>605</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="44" t="s">
-        <v>642</v>
+      <c r="D16" s="13" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="44" t="s">
-        <v>643</v>
+      <c r="B17" s="13" t="s">
+        <v>616</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="44" t="s">
-        <v>644</v>
+      <c r="D17" s="13" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>645</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>646</v>
+      <c r="B18" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>647</v>
+      <c r="B19" s="13" t="s">
+        <v>662</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="44" t="s">
-        <v>648</v>
+      <c r="D19" s="13" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>649</v>
+      <c r="B20" s="13" t="s">
+        <v>664</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>49</v>
+      <c r="D20" s="13" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>33</v>
+      <c r="B21" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="44" t="s">
-        <v>650</v>
+      <c r="B22" s="13" t="s">
+        <v>667</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>49</v>
+      <c r="D22" s="13" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
